--- a/NutritionCalculator/Data/Updated_Nutritional_Data.xlsx
+++ b/NutritionCalculator/Data/Updated_Nutritional_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewyong/Documents/GitHub/HandyToolsMac/NutritionCalculator/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CEFE9EB9-77F1-5940-B2AD-E719E2157798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4401ED-D935-2846-87C8-AF137A437996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{B94B1495-2188-164C-98D4-925136BF7234}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{B94B1495-2188-164C-98D4-925136BF7234}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Nutritional_Data" sheetId="1" r:id="rId1"/>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C72D4-59CA-3042-80CE-FD806909AC4A}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="186" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
@@ -1501,6 +1501,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -4113,11 +4114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEDC8C7-8EEA-EB45-A52C-14ECF883C094}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="192" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4772,7 +4773,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="220" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5138,7 +5139,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="207" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5293,7 +5294,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
